--- a/medicine/Enfance/Mimi_Cracra/Mimi_Cracra.xlsx
+++ b/medicine/Enfance/Mimi_Cracra/Mimi_Cracra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mimi Cracra est une série d'albums illustrés écrite et illustrée par Agnès Rosenstiehl[1],[2], destinée à des lecteurs à partir de 3 ans.
+Mimi Cracra est une série d'albums illustrés écrite et illustrée par Agnès Rosenstiehl destinée à des lecteurs à partir de 3 ans.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mimi Cracra est une petite fille hardie, curieuse et pleine d'imagination, qui découvre les choses les plus simples de la vie. Cette série s'adresse aux jeunes enfants, tant au niveau lexical que visuel. Mimi Cracra a paru régulièrement dans le journal Pomme d'api[1] de 1975 à 2005 et est éditée actuellement aux éditions du Seuil et Casterman pour la France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mimi Cracra est une petite fille hardie, curieuse et pleine d'imagination, qui découvre les choses les plus simples de la vie. Cette série s'adresse aux jeunes enfants, tant au niveau lexical que visuel. Mimi Cracra a paru régulièrement dans le journal Pomme d'api de 1975 à 2005 et est éditée actuellement aux éditions du Seuil et Casterman pour la France.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Albums</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mimi Cracra, Groupe Bayard, 1983.
 À l'eau Mimi Cracra, Groupe Bayard, 1985.
@@ -626,9 +642,11 @@
           <t>Série télévisée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une série télévisée adaptée de cette bande dessinée a été produite en deux saisons. La première saison de 104 épisodes d'animation a été créée en 1986 et diffusée en France dans Récré A2[3] et en Suisse dans les Babibouchettes. La seconde saison comprend 52 épisodes réalisés par Millimages et diffusés en 1991.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une série télévisée adaptée de cette bande dessinée a été produite en deux saisons. La première saison de 104 épisodes d'animation a été créée en 1986 et diffusée en France dans Récré A2 et en Suisse dans les Babibouchettes. La seconde saison comprend 52 épisodes réalisés par Millimages et diffusés en 1991.
 </t>
         </is>
       </c>
